--- a/server/train/data/data.xlsx
+++ b/server/train/data/data.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Полевые работы" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="288">
   <si>
     <t>Пахота зяби под мн тр
 По Пу 26/514
@@ -93,11 +93,6 @@
   </si>
   <si>
     <t>15.10
-Внесение мин удобрений под оз пшеницу 2025 г ПУ Юг 117/7381
-Отд 17-117/1560</t>
-  </si>
-  <si>
-    <t>15.10
 Внесение противозлакового гербецида на оз рапсе ПУ Юг 88/384
 Отд 12- 88/325</t>
   </si>
@@ -198,11 +193,6 @@
   </si>
   <si>
     <t>23.10
-Внесение мин удобрений под оз пшеницу 2025 г ПУ Юг 216/7698
-Отд 17-216/1877</t>
-  </si>
-  <si>
-    <t>23.10
 Внесение противозлакового гербецида на оз рапсе ПУ Юг 134/578
 Отд 11-134/253</t>
   </si>
@@ -227,11 +217,6 @@
 Отд 11-108/361</t>
   </si>
   <si>
-    <t>24.10
-Внесение мин удобрений под оз пшеницу 2025 г ПУ Юг 123/7821
-Отд 16-123/1123</t>
-  </si>
-  <si>
     <t>Уборка свеклы 27.10.день
 Отд10-45/216
 По ПУ 45/1569
@@ -251,13 +236,6 @@
 Внесение мин удобрений под оз рапс ПУ Юг 206/319
 Отд 16- 119/119
 Отд 17-87/87</t>
-  </si>
-  <si>
-    <t>17.07
-Внесение мин удобрений под сах свёклу 2025 г ПУ Юг- 83/739
-Отд 17-83/83
-Внесение минеральных удобрений под оз ячмень ПУ Юг 80/320
-Отд 12-80/219</t>
   </si>
   <si>
     <t>Диск оз пшеницы 
@@ -291,11 +269,6 @@
 Отд 16 9/101</t>
   </si>
   <si>
-    <t>19.07
-Внесение мин удобрений под сах свёклу 2025 г ПУ Юг- 120/857
-Отд 16- 120/551</t>
-  </si>
-  <si>
     <t>Север 
 Отд7 пах с св 41/501
 Отд20 20/281 по пу 61/793
@@ -338,30 +311,6 @@
 (дракула)
 По Пу 64/286
 Отд 12 64/155</t>
-  </si>
-  <si>
-    <t>Диск оз пшеницы 
-По Пу 95/8627
-Отд 17 95/1923
-2-е диск под сах св
-По Пу 151/1065
-Отд 16 151/842
-2-е диск под оз ячмень 
-По Пу 136/605
-Отд 11 70/219
-Отд 11 66/285
-2-е диск под рапс
-По ПУ 60/202
-Отд 16 60/89
-Пахота под мн тр
-По Пу 25/386
-Отд 17 25/28
-Пахота под сах св
-Отд 12 24/105
-Чизел под оз ячмень
-(дракула)
-По Пу 64/350
-Отд 12 64/219</t>
   </si>
   <si>
     <t>21.07
@@ -560,29 +509,6 @@
 Отд 11 65/65
 Вал 58720
 Урож 9</t>
-  </si>
-  <si>
-    <t>ПУ «ЮГ» 3.03
-Выравнивание зяби под сах св
-По ПУ 130/2657
-Отделение 11 31/705
-Отделение 17 99/687
-Выравнивание зяби под подсолнечник
-По ПУ 50/599
-Отделение 11 50/50
-Выравнивание зяби по кук/силос
-По ПУ 167/399
-Отделение 11 50/73
-Отделение 17 117/156
-Выравнивание зяби под сою 
-По ПУ 45/399
-Отделение 16 45/334
-Сев овса 
-По ПУ 94/99
-Отделение 11 94/99 закончили
-Прокатывание посевов овса 
-По ПУ 94/99
-Отделение 94/99 закончили</t>
   </si>
   <si>
     <t>ПУ «ЮГ» 4.03 
@@ -1491,6 +1417,1805 @@
 ПоПу 119/119
 Отд 12 39/39
 Отд 16 80/80</t>
+  </si>
+  <si>
+    <t>пахота под кукурузный силос
+Попу 432/740
+Отд 39 364/394
+Отд 19 1232/32539
+Отд 7 52/134
+выравн кук силос под оз пш
+По Пу 78/729
+Отд 47 432/909
+Отд 37 712/839
+внесение мин удобрений под сах свёклу
+По пу 532/322
+отд 43 343/212</t>
+  </si>
+  <si>
+    <t>диск кук силос под рапс
+Попу 4321/420
+Отд 39 3232/324
+Отд 7 52/134
+отд 43 343/133
+отд 43 22/32
+внесение мин удобрений под кук силос
+По Пу 342/78
+Отд 27 232/349
+внесение мин удобрений под оз пш
+По пу 422/342
+Отд 18 319/943</t>
+  </si>
+  <si>
+    <t>диск сахарной свеклы под подсолнечник
+Попу 41/442
+Отд 343 332/1562
+внесение мин удобрений под сою
+По Пу 584/98
+Отд 27 242/385
+сев под кукурузу
+По Пу 342/78
+Отд 27 232/349
+2-я подкормка озимой пшеницы под сах свекл
+По пу 422/342
+Отд 18 319/943
+Отд 7 52/134
+отд 43 343/133
+отд 43 22/32</t>
+  </si>
+  <si>
+    <t>предпосевная культивация под кукурузу
+Попу 637/783
+Отд 3 830/8903
+сев под оз пш
+По Пу 783/890
+Отд 12 389/636
+диск озимой пшеницы под сах свекл
+По пу 904/748
+Отд 18 235/965
+Отд 7 263/473
+отд 43 273/221
+отд 43 237/859
+Чизел под ячмень
+По Пу 3737/283
+Отд 27 378/478</t>
+  </si>
+  <si>
+    <t>Выравн под сах св
+Попу 263/489
+Отд 15 637/562
+Отд 35 382/226
+сев кук под сах св
+По Пу 783/890
+Отд 12 389/636
+диск озимой пшеницы под сах свекл
+По пу 90343/74232
+Отд 18 23/789
+Отд 54 21/411
+отд 12 21/232
+отд 11 763/829
+предп культ под кук силос
+По Пу 3737/283
+Отд 27 378/478</t>
+  </si>
+  <si>
+    <t>пахота кукурузы под ячмень
+попу 642/902
+отд 1 32/322
+отд 21 748/211
+отд 19 133/21
+диск оз пш под сах свекл
+по пу 212/122
+отд 16 31/137
+пахота культ под оз пш
+по пу 48/233
+отд 21 345/232
+отд 33 323/3232
+2-е диск под мн тр
+по пу 14/535
+отд 13 343/232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пахота кукурузы под ячмень
+попу 642/902
+Отд 11 161/534
+Отд 12 86/449
+Пахота зяби под мн тр
+По Пу 26/566
+Отд 12 26/299
+Предп культ под оз пш
+По Пу 247/1650
+отд 1 32/322
+отд 21 748/211
+отд 19 133/21
+Диск сах св
+По Пу 47/1051
+Отд 17 47/349
+2-е диск сах св под пш
+По Пу 23/922
+Отд 17 23/255
+Выравн зяби под мн тр
+По Пу 48/337
+Отд 12 48/70
+пахота кукурузы под ячмень
+попу 642/902
+Отд 11 161/534
+Отд 12 86/449
+Пахота зяби под мн тр
+По Пу 26/566
+Отд 12 26/299
+Предп культ под оз пш
+По Пу 247/1650
+отд 1 32/322
+отд 21 748/211
+отд 19 133/21
+Диск сах св
+По Пу 47/1051
+Отд 17 47/349
+2-е диск сах св под пш
+По Пу 23/922
+Отд 17 23/255
+Выравн зяби под мн тр
+По Пу 48/337
+Отд 12 48/70
+пахота кукурузы под ячмень
+попу 642/902
+Отд 11 161/534
+Отд 12 86/449
+Пахота зяби под мн тр
+По Пу 26/566
+Отд 12 26/299
+Предп культ под оз пш
+По Пу 247/1650
+отд 1 32/322
+отд 21 748/211
+отд 19 133/21
+Диск сах св
+По Пу 47/1051
+Отд 17 47/349
+2-е диск сах св под пш
+По Пу 23/922
+Отд 17 23/255
+Выравн зяби под мн тр
+По Пу 48/337
+Отд 12 48/70
+</t>
+  </si>
+  <si>
+    <t>пахота зяби под сах св
+По пу 65/223
+Отд 12 213/123
+выравн зяби под кук/силос
+по пу 32/323
+отд 11 212/144
+2-е диск кук/силос под сах св
+по пу 232/233
+отд 2 12/422
+2-е диск отц форм под кук силос
+по пу 119/434
+отд 32 323/232</t>
+  </si>
+  <si>
+    <t>Выравн под оз пш
+по пу 54/334
+Отд 13 14/544
+отд 15 12/121
+диск пш под сах свекла
+по пу 653/232
+отд 22 12/442
+отд 23 43/434</t>
+  </si>
+  <si>
+    <t>диск-ие с св под кук силос
+по пу 323/2432
+отд 12 211/214
+сев сах св под кук силос
+по пу 433/434
+отд 45 223/998</t>
+  </si>
+  <si>
+    <t>подкормка под оз пш
+по пу 323/323
+отд 76 644/343
+отд 17 32/453
+сев сах св
+попу 320/242
+отд 32 323/435</t>
+  </si>
+  <si>
+    <t>сев сах св
+попу 2221/142
+отд 18 242/245
+отд 78 4224/4343
+подкормка под подсолнухи
+попу 9747/866
+отд 46 2323/3535
+отд 43 434/780
+подкормка под кук зерно
+попу 7865/282
+отд 563/232</t>
+  </si>
+  <si>
+    <t>выравн кук под сою
+попу 323/4343
+отд 7 3232/232</t>
+  </si>
+  <si>
+    <t>подкормка сах св под кук зерно
+попу 2442/232
+отд 324/3232
+сев сах св
+попу 234/2322
+отд 22 892/232
+внесен КАС под оз пш
+попу 5932/6748
+отд 32 89/765
+предп культ под сах св.
+попу 35534/5457
+отд 45 235/2532
+отд 32 324/234</t>
+  </si>
+  <si>
+    <t>предп культ под кук зерно
+попу 242/2432
+отд 323 232/232
+предп культ под сою
+попу 242/2432
+отд 32 875/895
+выравн под кук/силос
+попу 536/3433
+отд 45 56475/3322
+отд 84 2435/67543</t>
+  </si>
+  <si>
+    <t>Внесен кас под кук силос
+по пу 323/2325
+отд 32 6784/242
+отд 43 2234/7876
+Внесен кас под кук силос
+по пу 4564/4352
+отд 32 235/3453
+внесение мин удобрений под оз ячмень
+попу 24354/3543
+отд 425/753</t>
+  </si>
+  <si>
+    <t>внесение мин удобрений под силос
+попу 423564/9875
+отд 45 343/563
+пахота под сах св
+попу 4354/35345
+отд 4355/2426
+внесен кас под кук силос
+попу 23223/25252
+отд 85 25/232</t>
+  </si>
+  <si>
+    <t>Внесение мин удобрений под сах св
+попу 2452/2422
+отд 2352/2424</t>
+  </si>
+  <si>
+    <t>чизел под ячмень
+попу 2532/2342
+отд 325/3465
+отд 353/3433
+внесение мин удобрений под оз рапс
+попу 2423/2342
+отд 87 2523/25235
+отд 53 353/3533</t>
+  </si>
+  <si>
+    <t>выравн зяби под сою
+попу 2522/534654
+отд 22 2423/2342
+пахота зяби под пш
+попу 56758/3666
+отд 23 325/2423
+отд 54 2528/2532</t>
+  </si>
+  <si>
+    <t>2-е диск сои под пш
+попу 346/3453
+отд 94 345/633
+отд 32 252/6346</t>
+  </si>
+  <si>
+    <t>пахота сои под ячмень
+попу 4346/4363
+отд 22 3252/32523
+2-е диск сах св под пш
+попу 3453/4344
+отд 3563/343</t>
+  </si>
+  <si>
+    <t>23.03 пахота зяби под сою
+попу 242/2323
+отд 23 323/232
+отд 24 232/3232</t>
+  </si>
+  <si>
+    <t>5.3.25
+выкаш сах/свекл под оз пш
+попу 4355/3433
+отд 8 435/353
+отд 43 23/34334
+Чизед под сах/свекл
+попу 424/3433
+отд 5 2422/232</t>
+  </si>
+  <si>
+    <t>6.4.33 выкаш с св под отц тр
+попу 422/223
+отд 322/223</t>
+  </si>
+  <si>
+    <t>выравн под кук/силос
+попу 23/85
+отд 8 43/343
+выравн зяби под кук/силос
+попу 424/3434
+отд 43 4343/4334</t>
+  </si>
+  <si>
+    <t>сплошная культивация оз пш под кукурузу
+попу 424/434
+отд 44 3443/434
+2-я подкормка озимой пш
+попу 23/2342
+отд 54 545/545</t>
+  </si>
+  <si>
+    <t>внесение минеральных удобрений под оз пш
+попу 5353/3535
+отд 54 57/43433
+2-е диск сах/свекл
+попу 4353/5343
+отд 42 2443/4333</t>
+  </si>
+  <si>
+    <t>сев сах свекл
+попу 546/454
+отд 7 76/668
+культивация сах свекл
+попу 43/8686
+отд 9 434/7676</t>
+  </si>
+  <si>
+    <t>посев подсолнкчника
+попу 678/544
+отд 8 535/343
+отд 9 443/4343</t>
+  </si>
+  <si>
+    <t>выравн зяби под сою
+попу 433/433
+отд 3 3434/343
+Прокатывание посевов овса
+попу 4343/3453
+отд 4 545/422</t>
+  </si>
+  <si>
+    <t>выравн под кук силос
+попу 2523/23423
+отд 4 434/4343
+отд 22 252/5325
+сев кукурузного силоса
+попу 4353/35435
+отд 7 346/3453
+отд 34 3453/4353</t>
+  </si>
+  <si>
+    <t>7.4.63
+выравн под кук силос
+попу 4344/4343
+отд 76 545/545
+отд 546 545/554
+внесение удобрений под сах/свекл
+попу 533/55353
+отд 65 54/546
+отд 6 546/4645
+дисков сах св 
+попу 533/25235
+отд 8 434/353
+отд 25 5435/333</t>
+  </si>
+  <si>
+    <t>выравн силос
+попу 43535/345
+отд 5 42324/23
+выкаш отц форм
+попу 2432/324
+отд 4 43543/3434
+отд 4 353/343</t>
+  </si>
+  <si>
+    <t>подкормка кас под оз пш
+попу 35345/3453
+отд 8 63/345
+отд 1 23/232</t>
+  </si>
+  <si>
+    <t>внесен кас под оз пш
+попу 43/435
+отд 32/235
+сев сах св
+попу 43 434/434
+отд 4 434/34</t>
+  </si>
+  <si>
+    <t>пахота под сою
+попу 45/343
+отд 23/4343
+предп культ под сах св
+попу 435/435
+отд 6 4343/3443</t>
+  </si>
+  <si>
+    <t>выравн под сою
+попу 4242/2432
+отд 32 2342/234
+предп культ под кук/з
+попу 435/435
+отд 7 434/43</t>
+  </si>
+  <si>
+    <t>пахотя зяби
+попу 34345/343
+отд 5 3567/434</t>
+  </si>
+  <si>
+    <t>Восход
+84.11.26
+Чизел под оз ячмень 325/222/65%
+Выравн под мн тр 4353/433/45%
+внесение мин удобрений под сах св 232/2342/5%</t>
+  </si>
+  <si>
+    <t>АО Пропоткинское
+17.11.24
+предпос культивация под кук/силос 2323/532435/78%
+выкаш сах св под кук силос 235/5435/78%
+2-е диск пш под сах св 535/5487/72%</t>
+  </si>
+  <si>
+    <t>Рассвет
+18.04.24
+культивация сах св 121/434/98%
+предпосевная культивация под сах св 23/232/75%</t>
+  </si>
+  <si>
+    <t>Рассвет
+сев сах св 324758/3433
+отд 4363/433</t>
+  </si>
+  <si>
+    <t>2-е диск под сах св пу "Юг" - 23523/2342
+отд 17 3252/32523
+отд 754 4654/5464
+сплошная культивация под сою пу "Север" - 4254/43534
+отд 19 325/433
+отд 24 235/3433</t>
+  </si>
+  <si>
+    <t>19.04
+предпосевная культивация под кукурузу
+попу 23523/23523
+отд 23 23/232</t>
+  </si>
+  <si>
+    <t>АО Коропоткинское
+диск кук/силос под сах св
+день 23532
+от начала 23523</t>
+  </si>
+  <si>
+    <t>АО Коропоткинское
+16.11.25
+Прокатывание посевов овса
+день 23234
+от начала 325323
+сев кук/силос
+день 25345
+от начала 3252332</t>
+  </si>
+  <si>
+    <t>СП Коломейцево
+18.09
+варванивание зяби под сах свеклу
+день 245
+от начала 25325</t>
+  </si>
+  <si>
+    <t>06.08.25
+диск кук/сил под ячмень пу "Кавказ" - 325325/436346
+внесен КАС под оз пш пу "Центр" - 25325/32523
+отд 235/2323</t>
+  </si>
+  <si>
+    <t>8.5.25
+2-е диск кук/з под кук/силос пу "Центр" - 2352/23523
+диск ячмень под сою пу "Центр" - 2532/43634
+отд 13 325/43623</t>
+  </si>
+  <si>
+    <t>выравнивание зяби под сою пу "Север" - 325/6433
+отд 775 454/456</t>
+  </si>
+  <si>
+    <t>15.8 Предп культ пу "Север" - 25345/3453
+отд 2 3252/235
+Выравн под сою пу "Центр" - 252235/2354
+отд 8 2342/4334
+сев сах св пу "Рассвет" - 325235/43623
+отд 98 25345/3456</t>
+  </si>
+  <si>
+    <t>17.9 сев оз пшеницы пу "Юг" - 3223/2532
+отд 42 254/235</t>
+  </si>
+  <si>
+    <t>16.02 выравн под кук/силос пу "Юг" - 132/2423
+отд 18 4343/435</t>
+  </si>
+  <si>
+    <t>19.08
+выравн кук силос
+попу 2534/5856
+отд 4 277/833</t>
+  </si>
+  <si>
+    <t>выравн кук силос
+попу 35/58445
+отд 7 435/57567
+довосходовое боронование подсолнечника
+попу 436/6474
+отд 8 24324/4646</t>
+  </si>
+  <si>
+    <t>17.02
+диск сах св
+попу 4837/43523
+отд 62 435/5332
+18.03
+диск кук силос
+попу 423/46547
+отд 73 2525/6575</t>
+  </si>
+  <si>
+    <t>довосходовое бронирование подсолнечника
+попу 53453/34343
+отд 3623/23495
+2-е диск под сах св
+попу 257/4343
+отд 7 3286/23423
+отд 83 245/23923</t>
+  </si>
+  <si>
+    <t>сев кук/силос
+попу 435/343
+отд 34 43/343
+Прокатывание посевов овса
+попу 3223/3232
+отд 24 43535/676243</t>
+  </si>
+  <si>
+    <t>СП Коломейцево
+17.5
+сев сах св
+день 25235
+от начала 32523
+2-я подкормка оз пш
+день 2523
+от начала 25322
+предпосевная культивация под сах св
+день 43534
+от начала 2524</t>
+  </si>
+  <si>
+    <t>Колхоз прогресс
+24.9
+пахота сои под ячмень
+день 26342
+от начала 36343</t>
+  </si>
+  <si>
+    <t>АО Коропоткинское
+8.3 сев озимый ячмень под оз пш</t>
+  </si>
+  <si>
+    <t>Мир
+12.8.76
+пахота зяби под мн тр
+день 23523
+от начала 235232</t>
+  </si>
+  <si>
+    <t>Мир
+5.06.23
+внесение мин удобрений под кук/силос
+день 46765
+от начала 567655
+выравн под сах св
+день 325325
+от начала 25543</t>
+  </si>
+  <si>
+    <t>АО Кропоткинское
+6.6.21
+сев кукурузного силоса
+день 6533
+от начала 5685
+выравн под кук силос
+день 56865
+от начала 5865</t>
+  </si>
+  <si>
+    <t>Мир
+15.7.27
+посев подсолнечника 
+день 456543
+от начала 45654
+выравг под кук силос
+день 4666
+от начала 454486
+выравн под кук силос
+день 5755
+от начала 464647</t>
+  </si>
+  <si>
+    <t>СП Коломейцево
+23.4.26
+диск кукукурузный силос под оз пш
+день 457
+от начала 5786
+сев сах св
+день 4774
+от начала 68965</t>
+  </si>
+  <si>
+    <t>Восход
+28.7.24
+прокатывание сах св
+день 24223
+от начала 2422</t>
+  </si>
+  <si>
+    <t>СП Коломейцево
+6.4.23
+диск оз пш под сах св
+день 235235
+от начала 5322</t>
+  </si>
+  <si>
+    <t>Мир
+выравн яч под сою
+день 23532
+от начала 2325
+диск сах св
+день 23532
+от начала 2523</t>
+  </si>
+  <si>
+    <t>Мир
+диск под рапс
+день 32523
+от начала 43532</t>
+  </si>
+  <si>
+    <t>Колхоз Прогресс
+чизел под оз пш
+день 25325
+от начала 25894
+Уборка пш под отц тр
+день 43
+от начала 12</t>
+  </si>
+  <si>
+    <t>Мир
+18.9.24
+выравн силос
+день 425346
+от начала 3633
+уборка пш под отц тр
+день 324
+от начала 2523
+выкаш с св под отц тр
+день 43633
+от начала 45636</t>
+  </si>
+  <si>
+    <t>АОР
+14.12.24
+Чизлевание под сах св
+день 32423
+от начала 25323</t>
+  </si>
+  <si>
+    <t>11.3
+Мир
+Выравн зяби под сах свеклу
+день 130
+от начала 232</t>
+  </si>
+  <si>
+    <t>16.2
+Восход
+Пахота зяби под сою
+день 4243
+от начала 4243</t>
+  </si>
+  <si>
+    <t>21.9
+Восход
+Пахота под кук/зерн
+день 423
+от начала 4353</t>
+  </si>
+  <si>
+    <t>11.3
+Восход
+Выравнивание зяби под сах свеклу
+день 43875
+от начала 46384
+Пахота под сою
+день 42434
+от начала 42434</t>
+  </si>
+  <si>
+    <t>18.03
+Колхоз Прогресс
+Пахота под сою
+день 4353
+от начада 4224</t>
+  </si>
+  <si>
+    <t>18.5.25
+Чизлевание под сою
+пахота под сах св
+день 2424
+от начала 35353</t>
+  </si>
+  <si>
+    <t>АО Кропоткинское
+6.8.23
+диск сах св
+день 235235
+от начала 5322</t>
+  </si>
+  <si>
+    <t>Восход
+диск под рапс
+день 32523
+от начала 43532</t>
+  </si>
+  <si>
+    <t>Восход
+чизел под оз пш
+день 25325
+от начала 25894
+Уборка пш под отц тр
+день 43
+от начала 12</t>
+  </si>
+  <si>
+    <t>Колхоз прогресс
+12.9.44
+уборка пш под отц тр
+день 425346
+от начала 3633
+выравн силос
+день 324
+от начала 2523
+выкаш с св под отц тр
+день 43633
+от начала 45636</t>
+  </si>
+  <si>
+    <t>АОР
+54.2.24
+Чизлевание под сах св
+день 32423
+от начала 25323</t>
+  </si>
+  <si>
+    <t>13.3
+СП Коломейцево
+Выравн сах св под сою
+день 130
+от начала 232</t>
+  </si>
+  <si>
+    <t>1.2
+Мир
+Пахота зяби под ячмень
+день 4243
+от начала 4243</t>
+  </si>
+  <si>
+    <t>21.10
+Восход
+Пахота под кук/зерн
+день 423
+от начала 4353</t>
+  </si>
+  <si>
+    <t>16.6
+Восход
+Чизлевание сои под сах свеклу
+день 43875
+от начала 46384
+Пахота под сою
+день 42434
+от начала 42434</t>
+  </si>
+  <si>
+    <t>24.07
+ТСК
+Пахота под сою
+день 4353
+от начада 4224</t>
+  </si>
+  <si>
+    <t>1.12.25
+2-е диск под сою
+пахота под сах св
+день 2424
+от начала 35353</t>
+  </si>
+  <si>
+    <t>6.8.23
+ТСК
+диск сах св
+9648 день
+2768 от начала</t>
+  </si>
+  <si>
+    <t>Мир
+выравн сои под ячмень
+23532 день
+2325 от начала
+диск оз пш под сах св
+23532 день
+2523 от начала</t>
+  </si>
+  <si>
+    <t>АО Кропоткинское
+диск под рапс
+435 день
+43532 от начала</t>
+  </si>
+  <si>
+    <t>Колхоз прогресс
+чизел под оз пш
+25325 день
+23463 от начала
+Уборка пш под отц тр
+345 день
+1342 от начала</t>
+  </si>
+  <si>
+    <t>Колхоз прогресс
+12.9.44
+уборка пш под отц тр
+425346 день
+3633 от начала
+выравн силос
+324 день
+2523 от начала
+выкаш с св под отц тр
+43633 день
+45636 от начала</t>
+  </si>
+  <si>
+    <t>54.2.24
+АОР
+Чизлевание под сах св
+32423 день
+25323 от начала</t>
+  </si>
+  <si>
+    <t>13.3
+Восход
+Выравн сах св под сою
+130 день
+232 от начала
+Выкаш сах св под отц тр
+130 день
+232 от начала</t>
+  </si>
+  <si>
+    <t>Мир
+1.2
+Пахота зяби под ячмень
+4243 день
+4243 от начала</t>
+  </si>
+  <si>
+    <t>21.10
+Восход
+Пахота под кук/зерн
+423 день
+4353 от начала</t>
+  </si>
+  <si>
+    <t>16.6
+Восход
+Чизлевание сои под сах свеклу
+43875 день
+46384 от начала
+Пахота под сою
+42434 день
+42434 от начала</t>
+  </si>
+  <si>
+    <t>24.09
+ТСК
+Пахота под сою
+4353 день
+4224 от начала</t>
+  </si>
+  <si>
+    <t>1.11.22
+2-е диск под ячмень
+пахота под сах св
+2424 день
+35353 от начала</t>
+  </si>
+  <si>
+    <t>6.8.23
+ТСК
+диск сах св
+9648 день
+2768 от начала
+вал 313/232</t>
+  </si>
+  <si>
+    <t>Мир
+выравн сои под ячмень
+23532 день
+2325 от начала
+вал 242/4242
+диск оз пш под сах св
+23532 день
+2523 от начала</t>
+  </si>
+  <si>
+    <t>АО Кропоткинское
+диск под рапс
+435 день
+43532 от начала
+вал 43443/4334</t>
+  </si>
+  <si>
+    <t>Колхоз прогресс
+чизел под оз пш
+25325 день
+23463 от начала
+вал 4243/343
+Уборка пш под отц тр
+345 день
+1342 от начала
+вал 3535/343</t>
+  </si>
+  <si>
+    <t>Колхоз прогресс
+12.9.44
+уборка пш под отц тр
+425346 день
+3633 от начала
+вал 435/433
+выравн силос
+324 день
+2523 от начала
+вал 53546/3434
+выкаш с св под отц тр
+43633 день
+45636 от начала</t>
+  </si>
+  <si>
+    <t>54.2.24
+АОР
+Чизлевание под сах св
+32423 день
+25323 от начала
+вал 53535/3534</t>
+  </si>
+  <si>
+    <t>13.3
+Восход
+Выравн сах св под сою
+130 день
+232 от начала
+Выкаш сах св под отц тр
+130 день
+232 от начала
+вал 54656/334</t>
+  </si>
+  <si>
+    <t>Мир
+1.2
+Пахота зяби под ячмень
+4243 день
+4243 от начала
+вал 435333</t>
+  </si>
+  <si>
+    <t>21.10
+Восход
+Пахота под кук/зерн
+423 день
+4353 от начала
+вал 435345/5353434</t>
+  </si>
+  <si>
+    <t>16.6
+Восход
+Чизлевание сои под сах свеклу
+43875 день
+46384 от начала
+вал 43535/23234
+Пахота под сою
+42434 день
+42434 от начала
+вал 53545/4342</t>
+  </si>
+  <si>
+    <t>24.09
+ТСК
+Пахота под сою
+4353 день
+4224 от начала
+вал 4354/3434</t>
+  </si>
+  <si>
+    <t>1.11.22
+2-е диск под ячмень
+пахота под сах св
+2424 день
+35353 от начала
+вал 54757/34534</t>
+  </si>
+  <si>
+    <t>сев кук/силос
+попу 435/343
+отд 34 43/343
+вал 43534/34534
+Прокатывание посевов овса
+попу 3223/3232
+отд 24 43535/676243
+вал 4363/35344</t>
+  </si>
+  <si>
+    <t>14.8.25
+прокатывание посевов кукурозного зерна
+попу 32534/3434
+отд 83 43576/4542
+вал 435435/3534
+18.09.25 сев кук/силос
+попу 24767/357665
+отд 74 6885/5675
+вал 4334/433</t>
+  </si>
+  <si>
+    <t>СП Коломейцево
+18.09
+варванивание зяби под сах свеклу
+день 245
+от начала 25325
+вал 34534/433</t>
+  </si>
+  <si>
+    <t>Рассвет
+18.04.24
+культивация сах св 121/434/98%
+предпосевная культивация под сах св 23/232/75%
+вал 4334/4343</t>
+  </si>
+  <si>
+    <t>выравн силос
+попу 43535/345
+отд 5 42324/23
+вал 543/435
+выкаш отц форм
+попу 2432/324
+отд 4 43543/3434
+отд 4 353/343
+вал 34543/232</t>
+  </si>
+  <si>
+    <t>5.4.21
+выравн под кук силос
+попу 43443/353
+отд 5 434/434
+отд 4 433/4534
+вал 34543/435
+попу 2342/234
+отд 78 433/3534
+вал 4543/334</t>
+  </si>
+  <si>
+    <t>внесение минеральных удобрений под оз пш
+попу 5353/3535
+отд 54 57/43433
+вал 4534/3453
+2-е диск сах/свекл
+попу 4353/5343
+отд 42 2443/4333
+вал 43534/4343</t>
+  </si>
+  <si>
+    <t>сев сах свекл
+попу 546/454
+отд 7 76/668
+вал 4543/3434
+культивация сах свекл
+попу 43/8686
+отд 9 434/7676
+вал 435354/43534</t>
+  </si>
+  <si>
+    <t>посев подсолнкчника
+попу 678/544
+отд 8 535/343
+отд 9 443/4343
+вал 435/3453</t>
+  </si>
+  <si>
+    <t>23.03 пахота зяби под сою
+попу 242/2323
+отд 23 323/232
+отд 24 232/3232
+вал 43534</t>
+  </si>
+  <si>
+    <t>внесение мин удобрений под силос
+попу 423564/9875
+отд 45 343/563
+вал 34534/343
+пахота под сах св
+попу 4354/35345
+отд 4355/2426
+вал 4534/3453
+внесен кас под кук силос
+попу 23223/25252
+отд 85 25/232
+вал 43534/343</t>
+  </si>
+  <si>
+    <t>Выравн под оз пш
+по пу 54/334
+Отд 13 14/544
+отд 15 12/121
+вал 54378/565
+диск пш под сах свекла
+по пу 653/232
+отд 22 12/442
+отд 23 43/434</t>
+  </si>
+  <si>
+    <t>17.9 сев оз пшеницы пу Юг - 3223/2532
+отд 42 254/235
+вал 43/23523</t>
+  </si>
+  <si>
+    <t>16.02 выравн под кук/силос пу Юг - 132/2423
+отд 18 4343/435
+вал 43543/43534</t>
+  </si>
+  <si>
+    <t>19.08
+выравн кук силос
+попу 2534/5856
+отд 4 277/833
+вал 3436/786</t>
+  </si>
+  <si>
+    <t>15.8 Предп культ пу Север - 25345/3453
+отд 2 3252/235
+вал 36346/345
+Выравн под сою пу Центр - 252235/2354
+отд 8 2342/4334
+вал 346546/3453
+сев сах св пу Рассвет - 325235/43623
+отд 98 25345/3456
+вал 3634/343</t>
+  </si>
+  <si>
+    <t>Пахота под сах св
+По Пу 50/379
+Отд 12 36/240
+Отд 16 14/79
+вал 34436/3434
+Чизел под оз ячмень
+По Пу 60/588
+Отд 11 60/190
+вал 34534
+2-е диск под сах св
+По Пу 130/1393
+Отд 17 130/130
+вал 346346
+Диск кук силос
+По Пу 207/857
+Отд 11 66/199
+Отд 12 141/289
+вал 34634/3463
+Диск оз пшеницы 
+По Пу 57/8743
+Отд 17 57/1999
+вал 43435/3534
+Выкаш отц форм под/г
+Отд 12 2/24
+вал 3453/34534
+Прикат под оз ячмень
+По Пу 60/458
+Отд 11 60/60
+вал 353/4334</t>
+  </si>
+  <si>
+    <t>ПУ «ЮГ» 2.03
+Выравнивание зяби под сах св
+По ПУ 105/2527
+Отделение 11 30/674
+Отделение 17 75/588
+вал 34345/34534
+Выравнивание зяби под кук/зерно 
+По ПУ 40/571
+Отделение 12 40/412
+вал 436436/987
+Выравнивание зяби по кук/силос
+По ПУ 62/232
+Отделение 11 23/23
+Отделение 17 39/39
+вал 3443/3434
+Выравнивание зяби под сою 
+По ПУ 72/354
+Отделение 16 72/289
+вал 34534
+Сев овса 
+По ПУ 5/5
+Отделение 11 5/5
+вал 3563623
+Прокатывание посевов овса 
+По ПУ 5/5
+Отделение 5/5
+вал 36268</t>
+  </si>
+  <si>
+    <t>Вырав под сою
+ПоПу 24/1481
+Отд 11 24/712
+вал 435435/3453
+Предп культ под сах св
+ПоПу 369/2656
+Отд 11 156/639
+Отд 12 48/795
+Отд 17 163/751
+вал 34646/343
+Сев сах св
+ПоПу 355/2287
+Отд 11 80/481
+Отд 12 133/659
+Отд 17 142/678
+вал 43634/33</t>
+  </si>
+  <si>
+    <t>Выравн зяби под сою
+ПоПу 18/1515
+Отд 11 18/746
+вал 3463/8865
+Предп культ под сах св
+ПоПу 175//2881
+Отд 11 45/734
+Отд 17 130/881
+вал 3864/65645
+Сев сах св
+ПоПу 333/2711
+Отд 11 113/615
+Отд 12 91/795
+Отд 17 129/832
+вал 63497/9766
+Предп культ под подсо
+Отд 16 90/90
+вал 346989/3453</t>
+  </si>
+  <si>
+    <t>Выравн под сою
+ПоПу 53/1441
+Отд 11 23/672
+Отд 12 30/251
+вал 436/6334
+Выравн под кук силос
+ПоПу 6/871
+Отд 11 6/401
+вал 4534/433
+Предп культ под сах св
+ПоПу 22/406
+Отд 11 20/67
+Отд 12 2/106
+вал 543/3433
+Сев сах св
+ПоПу 15/122
+Отд 11 5/5
+Отд 16 10/88</t>
+  </si>
+  <si>
+    <t>Выравн под сою
+ПоПу 118/1388
+Отд 11 51/649
+Отд 12 67/221
+вал 34534/767
+Выравн под кук зерно
+ПоПу 25/906
+Отд 12 25/437
+вал 34634/34534
+Предп культ под сах св
+ПоПу 265/384
+Отд 11 47/47
+Отд 12 65/104
+Отд 16 103/183
+Отд 17 50/50
+вал 4363/34534
+Сев сах свеклы
+ПоПу 107/107
+Отд 12 29/29
+Отд 16 78/78
+вал 36/8778</t>
+  </si>
+  <si>
+    <t>Пахота под сою
+ПоПу 14/1664
+Отд 11 14/897
+вал 36/3453
+Выравн под сою
+ПоПу 164/1270
+Отд 11 95/598
+Отд 12 35/154
+Отд 17 34/117
+вал 3643/2324
+Предп культ под сах/св
+ПоПу 119/119
+Отд 12 39/39
+Отд 16 80/80
+вал 435634/4364</t>
+  </si>
+  <si>
+    <t>ПУ «ЮГ» 2.03
+Выравнивание зяби под сах св
+По ПУ 105/2527
+Отделение 11 30/674
+Отделение 17 75/588
+вал 34636/433434
+Выравнивание зяби под кук/зерно 
+По ПУ 40/571
+Отделение 12 40/412
+вал 43634/34534
+Выравнивание зяби по кук/силос
+По ПУ 62/232
+Отделение 11 23/23
+Отделение 17 39/39
+вал 4353453
+Выравнивание зяби под сою 
+По ПУ 72/354
+Отделение 16 72/289
+вал 43534
+Сев овса 
+По ПУ 5/5
+Отделение 11 5/5
+вал 34634653
+Прокатывание посевов овса 
+По ПУ 5/5
+Отделение 5/5
+вал 43534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полевые работы АОР, 14.11.2024.
+Пахота под кукурузу на зерно:
+День - 26 га 
+От начала - 3931 га (96%)
+Остаток - 166 га 
+Пахота под сою:
+День - 295 га 
+От начала - 6804 га (79%)
+Остаток- 1774 га </t>
+  </si>
+  <si>
+    <t>Пахота под кукурузу на силос:
+День - 128 га 
+От начала - 1881 га(61%)
+Остаток - 1205 га 
+Чизелевание под сою:
+День -73 га 
+От начала - 841 га</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выравнивание зяби под сахарную свеклу:
+День - 384 га 
+От начала-7882 га (70%)
+Остаток - 3368 га
+Выравнивание зяби под подсолнечник:
+День - 50 га 
+От начала - 1260 га (30%)
+Остаток - 2923 га </t>
+  </si>
+  <si>
+    <t>2 след выравнивания зяби под сах.свеклу:
+День- 44 га 
+От начала- 469 га (4%)
+Остаток - 10781 га 
+Затравка мышевидных грызунов по мн.травам:
+День - 53 га 
+От начала -1018 га (58%)
+Остаток - 471 га</t>
+  </si>
+  <si>
+    <t>Затравка мышевидных грызунов по озимому ячменю:
+День - 186 га 
+От начала- 186 га 
+Остаток - 2086 га</t>
+  </si>
+  <si>
+    <t>15.10
+Внесение мин удобрений под оз пшеницу ПУ Юг 117/7381
+Отд 17-117/1560</t>
+  </si>
+  <si>
+    <t>23.10
+Внесение мин удобрений под оз пшеницу ПУ Юг 216/7698
+Отд 17-216/1877</t>
+  </si>
+  <si>
+    <t>24.10
+Внесение мин удобрений под оз пшеницу ПУ Юг 123/7821
+Отд 16-123/1123</t>
+  </si>
+  <si>
+    <t>17.07
+Внесение мин удобрений под сах свёклу ПУ Юг- 83/739
+Отд 17-83/83
+Внесение минеральных удобрений под оз ячмень ПУ Юг 80/320
+Отд 12-80/219</t>
+  </si>
+  <si>
+    <t>19.07
+Внесение мин удобрений под сах свёклу ПУ Юг- 120/857
+Отд 16- 120/551</t>
+  </si>
+  <si>
+    <t>Диск оз пшеницы 
+По Пу 95/8627
+Отд 17 95/1923
+2-е диск под сах св
+По Пу 151/1065
+Отд 16 151/842
+2-е диск под оз ячмень 
+По Пу 136/605
+Отд 11 70/219
+Отд 11 66/285
+2-е диск под рапс
+По ПУ 60/202
+Отд 16 60/89
+Пахота под мн тр
+По Пу 25/386
+Отд 17 25/28
+Пахота под сах св
+Отд 12 24/105
+Чизел под оз ячмень
+По Пу 64/350
+Отд 12 64/219</t>
+  </si>
+  <si>
+    <t>ПУ «ЮГ» 3.03
+Выравнивание зяби под сах св
+По ПУ 130/2657
+Отделение 11 31/705
+Отделение 17 99/687
+Выравнивание зяби под подсолнечник
+По ПУ 50/599
+Отделение 11 50/50
+Выравнивание зяби по кук/силос
+По ПУ 167/399
+Отделение 11 50/73
+Отделение 17 117/156
+Выравнивание зяби под сою 
+По ПУ 45/399
+Отделение 16 45/334
+Сев овса 
+По ПУ 94/99
+Отделение 11 94/99 закончили
+Прокатывание посевов овса 
+По ПУ 94/99
+Отделение 11 94/99 закончили</t>
+  </si>
+  <si>
+    <t>11.2 выкаш кук силос под сах св
+По пу 325/4643
+Отд 92 643/222
+Отд 23 647/672
+выравн отц тр под кук/силос
+по пу 32/323
+отд 11 212/144
+2-е диск пш под сах св
+по пу 232/233
+отд 2 12/422
+выравн отц форм под кук силос
+по пу 119/434
+отд 32 323/232</t>
+  </si>
+  <si>
+    <t>11.3 2-е диск отц тр под сах св
+По пу 325/4643
+Отд 92 643/222
+Отд 23 647/672
+выравн кук силос под кук/силос
+по пу 115/323
+отд 13 320/463
+2-е диск пш под сах св
+по пу 620/463
+отд 2 6379/748
+выравн отц форм под сах св
+по пу 189/748
+отд 58 849/323</t>
+  </si>
+  <si>
+    <t>16.11 Чизел под оз ячмень
+по пу 12/554
+отд 14 43/443
+Чизел под св
+по пу 45/334
+отд 34 32/559
+отд 98 23/778
+сев под сах св
+по пу 56/334
+отд 25 53/665</t>
+  </si>
+  <si>
+    <t>12.04.25 2-е диск-ие с св под кук силос
+по пу 983/238
+отд 13 211/414
+сев сах св под кук силос
+по пу 323/844
+отд 45 243/348
+отд 34 131/234
+сев под с св
+по пу 323/2322
+отд 32 213/3232
+отд 32 3232/232
+выравн зяби под подсолнухи
+попу 12/322
+отд 65 322/2323</t>
+  </si>
+  <si>
+    <t>2.12 выравн под ячм
+попу 21/764
+отд 54 547/750
+диск кук силос под рапс
+попу 324/424
+отд 42 5638/5445
+чизел под оз ячмень
+по пу 32/7509
+отд 34 322/323</t>
+  </si>
+  <si>
+    <t>предп культ под сою
+попу 32/2
+отд 32 453/23
+дисков сах св
+попу 423/343
+отд 57 474/7434
+отд 43 43632/4734</t>
+  </si>
+  <si>
+    <t>12.8 2-е дис сах св под пш
+попу 235/363
+отд 56 253/6784
+дисков под оз пш
+попу 252/235235
+отд 23/4363</t>
+  </si>
+  <si>
+    <t>31.12.25 пахота зяби под мн тр
+попу 46/3453
+отд 14 252/242
+2-е диск сах св под пш
+попу 252/23523
+отд 56 323/2423</t>
+  </si>
+  <si>
+    <t>7.2 выравн яч под сою
+попу 232/2523
+отд 34 45/2347
+пахота ячмень под ячмень
+попу 2342/32423
+отд 22 3124/232342</t>
+  </si>
+  <si>
+    <t>8.3 сев ячмень под озимый ячмень
+попу 4353/3435
+отд 81 243/2323
+отд 27 3242/232
+внесение гербицидов под оз пш
+попу 4242/2342
+отд 4 3244/3434
+отд 31 195/542</t>
+  </si>
+  <si>
+    <t>4.3.25
+посев с св под оз пш
+попу 3435/3433
+отд 33 344/343
+пахота ячмень под кук силос
+попу 4774/4343
+отд 43 433/4343
+отд 7 33/343
+внесение гербицидоа под оз пш
+попу 433/433
+отд 78 323/252
+отд 4 4334/433</t>
+  </si>
+  <si>
+    <t>7.2.24
+пахота сои под сах св
+попу 4353/4343
+отд 54 5454/5454
+отд 33 242/3433
+выравн яч под сою
+попу 4343/343
+отд 2442/223</t>
+  </si>
+  <si>
+    <t>2.5.25
+выравн сах св под кук силос
+попу 433/232
+отд 2 4242/242
+отд 23 322/4242
+сев ячмень под сах/свекл
+попу 24422/23232
+отд 8 786/565
+отд 56 4533/3436
+Пахота сои под оз пш
+попу 4353/3434
+отд 4 4343/34534
+отд 4 43435/3452</t>
+  </si>
+  <si>
+    <t>дисков сои под силос
+попу 4222/232
+отд 4 22/232
+пахота сои под оз пш
+попу 4242/242
+отд 3 232/2424</t>
+  </si>
+  <si>
+    <t>выравн зяби под подсолнечник
+попу 434/4343
+отд 2 3222/4343
+отд 3 2322/353
+пахота зяби под кукурузу
+попу 23222/2323
+отд 24 43433/34353</t>
+  </si>
+  <si>
+    <t>сев кук/свеклу
+попу 242/232
+отд 3 4343/223
+сев сах св
+попу 2324/3539
+отд 7 487/343
+выравн под кук силос
+попу 434/343
+отд 32 2323/4334</t>
+  </si>
+  <si>
+    <t>2-я подкормка оз пш
+попу 224/4343
+отд 9 3224/2443
+пахотя зяби под сою
+попу 437/3434
+отд 8 43/587</t>
+  </si>
+  <si>
+    <t>6.2 выравн зяби под сою
+попу 78/434
+отд 8 43/3554
+выравн под сах/свекл
+попу 4873/433
+отд 8 22</t>
+  </si>
+  <si>
+    <t>5.4.21
+выравн под кук силос
+попу 43443/353
+отд 5 434/434
+отд 4 433/4534
+чизлевание под сах св
+попу 2342/234
+отд 78 433/3534</t>
+  </si>
+  <si>
+    <t>8.3 Прокатывание посевов кук силоса
+попу 4343/433
+отд 4 36/534
+попу 4334/535
+отд 45 435/235</t>
+  </si>
+  <si>
+    <t>подкормка оз пш
+попу 436/5464
+отд 6 322/234
+подкормка сах/свекл
+попу 4335/4353
+отд 8 2523/2352</t>
+  </si>
+  <si>
+    <t>5.4.24
+выравнивание зяби под сах св
+попу 53/343
+отд 4 4353/232
+отд 4 33/3443</t>
+  </si>
+  <si>
+    <t>14.05 пахота под сою
+попу 45/343
+отд 23/4343
+предп культ под сах св
+попу 435/435
+отд 6 4343/3443</t>
+  </si>
+  <si>
+    <t>5.6
+внесен кас под оз пш
+попу 43/435
+отд 32/235
+сев сах св
+попу 43 434/434
+отд 4 434/34</t>
+  </si>
+  <si>
+    <t>14.8.25
+прокатывание посевов кукурозного зерна
+попу 32534/3434
+отд 83 43576/4542
+сев кук/силос
+попу 24767/357665
+отд 74 6885/5675</t>
+  </si>
+  <si>
+    <t>дисков сои под силос
+попу 4222/232
+отд 4 22/232
+пахота сои под оз пш
+попу 4242/242
+отд 3 232/2424
+вал 4534/3434</t>
+  </si>
+  <si>
+    <t>8.3 сев ячмень под озимый ячмень
+попу 4353/3435
+отд 81 243/2323
+отд 27 3242/232
+внесение гербицидов под оз пш
+попу 4242/2342
+отд 4 3244/3434
+отд 31 195/542
+вал 34543/3434</t>
+  </si>
+  <si>
+    <t>4.3
+посев с св под оз пш
+попу 3435/3433
+отд 33 344/343
+вал 435343
+пахота ячмень под кук силос
+попу 4774/4343
+отд 43 433/4343
+отд 7 33/343
+вал 3543
+внесение гербицидоа под оз пш
+попу 433/433
+отд 78 323/252
+отд 4 4334/433
+вал 43543</t>
   </si>
 </sst>
 </file>
@@ -1844,10 +3569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A117"/>
+  <dimension ref="A2:A290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A228" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C229" sqref="C229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1857,7 +3582,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="240" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="345" x14ac:dyDescent="0.25">
@@ -1887,555 +3612,1421 @@
     </row>
     <row r="8" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="300" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="225" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="225" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="285" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="270" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="240" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="405" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>27</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="360" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="405" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="345" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="210" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="300" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="180" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="180" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="180" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="180" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="255" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="225" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="285" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="195" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="270" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="225" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="240" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="210" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="195" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="165" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="210" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="195" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="165" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="330" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="285" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="165" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="210" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="225" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="180" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="150" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="150" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="225" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="180" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="285" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="180" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="270" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="270" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="285" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="270" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="255" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" ht="255" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" ht="270" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" ht="270" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" ht="315" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>